--- a/output/入院记录-舌脉象-病历表.xlsx
+++ b/output/入院记录-舌脉象-病历表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13560"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>INHOSPTIAL_ID</t>
   </si>
@@ -33,16 +33,28 @@
   <si>
     <t>脉象</t>
   </si>
+  <si>
+    <t>舌体-正常</t>
+  </si>
+  <si>
+    <t>舌体-瘦</t>
+  </si>
+  <si>
+    <t>舌体-胖大</t>
+  </si>
+  <si>
+    <t>舌体-齿痕</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;HK$&quot;* #,##0_);_(&quot;HK$&quot;* \(#,##0\);_(&quot;HK$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_(&quot;HK$&quot;* #,##0.00_);_(&quot;HK$&quot;* \(#,##0.00\);_(&quot;HK$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;HK$&quot;* #,##0_);_(&quot;HK$&quot;* \(#,##0\);_(&quot;HK$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -62,60 +74,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,6 +93,58 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,15 +166,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,13 +181,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -190,23 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +239,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,13 +299,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,37 +335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,13 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,18 +377,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -359,19 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,25 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,8 +445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,41 +456,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,6 +490,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,79 +515,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -608,70 +620,70 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,7 +1041,7 @@
   <dimension ref="A1:F270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.8" outlineLevelCol="5"/>
@@ -1058,8 +1070,8 @@
       <c r="A2" s="1">
         <v>1024</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1078,8 +1090,8 @@
       <c r="A3" s="1">
         <v>2560</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1098,8 +1110,8 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1118,8 +1130,8 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1138,8 +1150,8 @@
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1158,8 +1170,8 @@
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1178,8 +1190,8 @@
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1198,8 +1210,8 @@
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1218,8 +1230,8 @@
       <c r="A10" s="1">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1238,8 +1250,8 @@
       <c r="A11" s="1">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>3</v>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1258,8 +1270,8 @@
       <c r="A12" s="1">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>6</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1278,8 +1290,8 @@
       <c r="A13" s="1">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>6</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1298,8 +1310,8 @@
       <c r="A14" s="1">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>3</v>
+      <c r="B14" t="s">
+        <v>8</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1318,8 +1330,8 @@
       <c r="A15" s="1">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>1</v>
+      <c r="B15" t="s">
+        <v>6</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1338,8 +1350,8 @@
       <c r="A16" s="1">
         <v>529</v>
       </c>
-      <c r="B16">
-        <v>1</v>
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1358,8 +1370,8 @@
       <c r="A17" s="1">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>1</v>
+      <c r="B17" t="s">
+        <v>6</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1378,8 +1390,8 @@
       <c r="A18" s="1">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>3</v>
+      <c r="B18" t="s">
+        <v>8</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1398,8 +1410,8 @@
       <c r="A19" s="1">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>3</v>
+      <c r="B19" t="s">
+        <v>8</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1418,8 +1430,8 @@
       <c r="A20" s="1">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>3</v>
+      <c r="B20" t="s">
+        <v>8</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1438,8 +1450,8 @@
       <c r="A21" s="1">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>6</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1458,8 +1470,8 @@
       <c r="A22" s="1">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>1</v>
+      <c r="B22" t="s">
+        <v>6</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1478,8 +1490,8 @@
       <c r="A23" s="1">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>3</v>
+      <c r="B23" t="s">
+        <v>8</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1498,8 +1510,8 @@
       <c r="A24" s="1">
         <v>17</v>
       </c>
-      <c r="B24">
-        <v>2</v>
+      <c r="B24" t="s">
+        <v>7</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1518,8 +1530,8 @@
       <c r="A25" s="1">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>3</v>
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -1538,8 +1550,8 @@
       <c r="A26" s="1">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>3</v>
+      <c r="B26" t="s">
+        <v>8</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1558,8 +1570,8 @@
       <c r="A27" s="1">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>1</v>
+      <c r="B27" t="s">
+        <v>6</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1578,8 +1590,8 @@
       <c r="A28" s="1">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>1</v>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1598,8 +1610,8 @@
       <c r="A29" s="1">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>1</v>
+      <c r="B29" t="s">
+        <v>6</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1618,8 +1630,8 @@
       <c r="A30" s="1">
         <v>31</v>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="s">
+        <v>6</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1638,8 +1650,8 @@
       <c r="A31" s="1">
         <v>1054</v>
       </c>
-      <c r="B31">
-        <v>1</v>
+      <c r="B31" t="s">
+        <v>6</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1658,8 +1670,8 @@
       <c r="A32" s="1">
         <v>33</v>
       </c>
-      <c r="B32">
-        <v>2</v>
+      <c r="B32" t="s">
+        <v>7</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -1678,8 +1690,8 @@
       <c r="A33" s="1">
         <v>34</v>
       </c>
-      <c r="B33">
-        <v>3</v>
+      <c r="B33" t="s">
+        <v>8</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1698,8 +1710,8 @@
       <c r="A34" s="1">
         <v>35</v>
       </c>
-      <c r="B34">
-        <v>1</v>
+      <c r="B34" t="s">
+        <v>6</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1718,8 +1730,8 @@
       <c r="A35" s="1">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>3</v>
+      <c r="B35" t="s">
+        <v>8</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1738,8 +1750,8 @@
       <c r="A36" s="1">
         <v>37</v>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" t="s">
+        <v>6</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1758,8 +1770,8 @@
       <c r="A37" s="1">
         <v>2598</v>
       </c>
-      <c r="B37">
-        <v>1</v>
+      <c r="B37" t="s">
+        <v>6</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1778,8 +1790,8 @@
       <c r="A38" s="1">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>1</v>
+      <c r="B38" t="s">
+        <v>6</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1798,8 +1810,8 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="B39" t="s">
+        <v>6</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1818,8 +1830,8 @@
       <c r="A40" s="1">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>3</v>
+      <c r="B40" t="s">
+        <v>8</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1838,8 +1850,8 @@
       <c r="A41" s="1">
         <v>42</v>
       </c>
-      <c r="B41">
-        <v>1</v>
+      <c r="B41" t="s">
+        <v>6</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1858,8 +1870,8 @@
       <c r="A42" s="1">
         <v>43</v>
       </c>
-      <c r="B42">
-        <v>1</v>
+      <c r="B42" t="s">
+        <v>6</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1878,8 +1890,8 @@
       <c r="A43" s="1">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>1</v>
+      <c r="B43" t="s">
+        <v>6</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -1898,8 +1910,8 @@
       <c r="A44" s="1">
         <v>45</v>
       </c>
-      <c r="B44">
-        <v>3</v>
+      <c r="B44" t="s">
+        <v>8</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1918,8 +1930,8 @@
       <c r="A45" s="1">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>3</v>
+      <c r="B45" t="s">
+        <v>8</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1938,8 +1950,8 @@
       <c r="A46" s="1">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>4</v>
+      <c r="B46" t="s">
+        <v>9</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1958,8 +1970,8 @@
       <c r="A47" s="1">
         <v>48</v>
       </c>
-      <c r="B47">
-        <v>1</v>
+      <c r="B47" t="s">
+        <v>6</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1978,8 +1990,8 @@
       <c r="A48" s="1">
         <v>1072</v>
       </c>
-      <c r="B48">
-        <v>1</v>
+      <c r="B48" t="s">
+        <v>6</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1998,8 +2010,8 @@
       <c r="A49" s="1">
         <v>553</v>
       </c>
-      <c r="B49">
-        <v>1</v>
+      <c r="B49" t="s">
+        <v>6</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -2018,8 +2030,8 @@
       <c r="A50" s="1">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>1</v>
+      <c r="B50" t="s">
+        <v>6</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -2038,8 +2050,8 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>1</v>
+      <c r="B51" t="s">
+        <v>6</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -2058,8 +2070,8 @@
       <c r="A52" s="1">
         <v>53</v>
       </c>
-      <c r="B52">
-        <v>1</v>
+      <c r="B52" t="s">
+        <v>6</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -2078,8 +2090,8 @@
       <c r="A53" s="1">
         <v>54</v>
       </c>
-      <c r="B53">
-        <v>1</v>
+      <c r="B53" t="s">
+        <v>6</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2098,8 +2110,8 @@
       <c r="A54" s="1">
         <v>55</v>
       </c>
-      <c r="B54">
-        <v>1</v>
+      <c r="B54" t="s">
+        <v>6</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2118,8 +2130,8 @@
       <c r="A55" s="1">
         <v>56</v>
       </c>
-      <c r="B55">
-        <v>1</v>
+      <c r="B55" t="s">
+        <v>6</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -2138,8 +2150,8 @@
       <c r="A56" s="1">
         <v>57</v>
       </c>
-      <c r="B56">
-        <v>1</v>
+      <c r="B56" t="s">
+        <v>6</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2158,8 +2170,8 @@
       <c r="A57" s="1">
         <v>58</v>
       </c>
-      <c r="B57">
-        <v>3</v>
+      <c r="B57" t="s">
+        <v>8</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -2178,8 +2190,8 @@
       <c r="A58" s="1">
         <v>52</v>
       </c>
-      <c r="B58">
-        <v>1</v>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -2198,8 +2210,8 @@
       <c r="A59" s="1">
         <v>60</v>
       </c>
-      <c r="B59">
-        <v>3</v>
+      <c r="B59" t="s">
+        <v>8</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2218,8 +2230,8 @@
       <c r="A60" s="1">
         <v>61</v>
       </c>
-      <c r="B60">
-        <v>1</v>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -2238,8 +2250,8 @@
       <c r="A61" s="1">
         <v>62</v>
       </c>
-      <c r="B61">
-        <v>1</v>
+      <c r="B61" t="s">
+        <v>6</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -2258,8 +2270,8 @@
       <c r="A62" s="1">
         <v>64</v>
       </c>
-      <c r="B62">
-        <v>1</v>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -2278,8 +2290,8 @@
       <c r="A63" s="1">
         <v>65</v>
       </c>
-      <c r="B63">
-        <v>1</v>
+      <c r="B63" t="s">
+        <v>6</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -2298,8 +2310,8 @@
       <c r="A64" s="1">
         <v>66</v>
       </c>
-      <c r="B64">
-        <v>1</v>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2318,8 +2330,8 @@
       <c r="A65" s="1">
         <v>67</v>
       </c>
-      <c r="B65">
-        <v>1</v>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -2338,8 +2350,8 @@
       <c r="A66" s="1">
         <v>68</v>
       </c>
-      <c r="B66">
-        <v>1</v>
+      <c r="B66" t="s">
+        <v>6</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -2358,8 +2370,8 @@
       <c r="A67" s="1">
         <v>69</v>
       </c>
-      <c r="B67">
-        <v>1</v>
+      <c r="B67" t="s">
+        <v>6</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -2378,8 +2390,8 @@
       <c r="A68" s="1">
         <v>70</v>
       </c>
-      <c r="B68">
-        <v>1</v>
+      <c r="B68" t="s">
+        <v>6</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2398,8 +2410,8 @@
       <c r="A69" s="1">
         <v>71</v>
       </c>
-      <c r="B69">
-        <v>1</v>
+      <c r="B69" t="s">
+        <v>6</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2418,8 +2430,8 @@
       <c r="A70" s="1">
         <v>1132</v>
       </c>
-      <c r="B70">
-        <v>1</v>
+      <c r="B70" t="s">
+        <v>6</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -2438,8 +2450,8 @@
       <c r="A71" s="1">
         <v>74</v>
       </c>
-      <c r="B71">
-        <v>1</v>
+      <c r="B71" t="s">
+        <v>6</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -2458,8 +2470,8 @@
       <c r="A72" s="1">
         <v>75</v>
       </c>
-      <c r="B72">
-        <v>3</v>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2478,8 +2490,8 @@
       <c r="A73" s="1">
         <v>76</v>
       </c>
-      <c r="B73">
-        <v>1</v>
+      <c r="B73" t="s">
+        <v>6</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -2498,8 +2510,8 @@
       <c r="A74" s="1">
         <v>77</v>
       </c>
-      <c r="B74">
-        <v>4</v>
+      <c r="B74" t="s">
+        <v>9</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -2518,8 +2530,8 @@
       <c r="A75" s="1">
         <v>117</v>
       </c>
-      <c r="B75">
-        <v>1</v>
+      <c r="B75" t="s">
+        <v>6</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -2538,8 +2550,8 @@
       <c r="A76" s="1">
         <v>1105</v>
       </c>
-      <c r="B76">
-        <v>1</v>
+      <c r="B76" t="s">
+        <v>6</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -2558,8 +2570,8 @@
       <c r="A77" s="1">
         <v>81</v>
       </c>
-      <c r="B77">
-        <v>1</v>
+      <c r="B77" t="s">
+        <v>6</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2578,8 +2590,8 @@
       <c r="A78" s="1">
         <v>83</v>
       </c>
-      <c r="B78">
-        <v>1</v>
+      <c r="B78" t="s">
+        <v>6</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -2598,8 +2610,8 @@
       <c r="A79" s="1">
         <v>84</v>
       </c>
-      <c r="B79">
-        <v>1</v>
+      <c r="B79" t="s">
+        <v>6</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -2618,8 +2630,8 @@
       <c r="A80" s="1">
         <v>2771</v>
       </c>
-      <c r="B80">
-        <v>1</v>
+      <c r="B80" t="s">
+        <v>6</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -2658,8 +2670,8 @@
       <c r="A82" s="1">
         <v>87</v>
       </c>
-      <c r="B82">
-        <v>1</v>
+      <c r="B82" t="s">
+        <v>6</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -2678,8 +2690,8 @@
       <c r="A83" s="1">
         <v>88</v>
       </c>
-      <c r="B83">
-        <v>4</v>
+      <c r="B83" t="s">
+        <v>9</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -2698,8 +2710,8 @@
       <c r="A84" s="1">
         <v>89</v>
       </c>
-      <c r="B84">
-        <v>1</v>
+      <c r="B84" t="s">
+        <v>6</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2718,8 +2730,8 @@
       <c r="A85" s="1">
         <v>90</v>
       </c>
-      <c r="B85">
-        <v>1</v>
+      <c r="B85" t="s">
+        <v>6</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -2738,8 +2750,8 @@
       <c r="A86" s="1">
         <v>91</v>
       </c>
-      <c r="B86">
-        <v>1</v>
+      <c r="B86" t="s">
+        <v>6</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -2758,8 +2770,8 @@
       <c r="A87" s="1">
         <v>93</v>
       </c>
-      <c r="B87">
-        <v>1</v>
+      <c r="B87" t="s">
+        <v>6</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -2778,8 +2790,8 @@
       <c r="A88" s="1">
         <v>97</v>
       </c>
-      <c r="B88">
-        <v>1</v>
+      <c r="B88" t="s">
+        <v>6</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2798,8 +2810,8 @@
       <c r="A89" s="1">
         <v>98</v>
       </c>
-      <c r="B89">
-        <v>1</v>
+      <c r="B89" t="s">
+        <v>6</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -2818,8 +2830,8 @@
       <c r="A90" s="1">
         <v>103</v>
       </c>
-      <c r="B90">
-        <v>1</v>
+      <c r="B90" t="s">
+        <v>6</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -2838,8 +2850,8 @@
       <c r="A91" s="1">
         <v>104</v>
       </c>
-      <c r="B91">
-        <v>1</v>
+      <c r="B91" t="s">
+        <v>6</v>
       </c>
       <c r="C91">
         <v>3</v>
@@ -2858,8 +2870,8 @@
       <c r="A92" s="1">
         <v>615</v>
       </c>
-      <c r="B92">
-        <v>1</v>
+      <c r="B92" t="s">
+        <v>6</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -2878,8 +2890,8 @@
       <c r="A93" s="1">
         <v>106</v>
       </c>
-      <c r="B93">
-        <v>1</v>
+      <c r="B93" t="s">
+        <v>6</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2898,8 +2910,8 @@
       <c r="A94" s="1">
         <v>108</v>
       </c>
-      <c r="B94">
-        <v>1</v>
+      <c r="B94" t="s">
+        <v>6</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2918,8 +2930,8 @@
       <c r="A95" s="1">
         <v>109</v>
       </c>
-      <c r="B95">
-        <v>1</v>
+      <c r="B95" t="s">
+        <v>6</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2938,8 +2950,8 @@
       <c r="A96" s="1">
         <v>110</v>
       </c>
-      <c r="B96">
-        <v>1</v>
+      <c r="B96" t="s">
+        <v>6</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -2958,8 +2970,8 @@
       <c r="A97" s="1">
         <v>111</v>
       </c>
-      <c r="B97">
-        <v>1</v>
+      <c r="B97" t="s">
+        <v>6</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -2978,8 +2990,8 @@
       <c r="A98" s="1">
         <v>112</v>
       </c>
-      <c r="B98">
-        <v>3</v>
+      <c r="B98" t="s">
+        <v>8</v>
       </c>
       <c r="C98">
         <v>3</v>
@@ -2998,8 +3010,8 @@
       <c r="A99" s="1">
         <v>113</v>
       </c>
-      <c r="B99">
-        <v>4</v>
+      <c r="B99" t="s">
+        <v>9</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -3018,8 +3030,8 @@
       <c r="A100" s="1">
         <v>114</v>
       </c>
-      <c r="B100">
-        <v>1</v>
+      <c r="B100" t="s">
+        <v>6</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -3038,8 +3050,8 @@
       <c r="A101" s="1">
         <v>115</v>
       </c>
-      <c r="B101">
-        <v>1</v>
+      <c r="B101" t="s">
+        <v>6</v>
       </c>
       <c r="C101">
         <v>3</v>
@@ -3078,8 +3090,8 @@
       <c r="A103" s="1">
         <v>1141</v>
       </c>
-      <c r="B103">
-        <v>1</v>
+      <c r="B103" t="s">
+        <v>6</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3098,8 +3110,8 @@
       <c r="A104" s="1">
         <v>118</v>
       </c>
-      <c r="B104">
-        <v>1</v>
+      <c r="B104" t="s">
+        <v>6</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -3118,8 +3130,8 @@
       <c r="A105" s="1">
         <v>119</v>
       </c>
-      <c r="B105">
-        <v>1</v>
+      <c r="B105" t="s">
+        <v>6</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -3138,8 +3150,8 @@
       <c r="A106" s="1">
         <v>120</v>
       </c>
-      <c r="B106">
-        <v>1</v>
+      <c r="B106" t="s">
+        <v>6</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -3158,8 +3170,8 @@
       <c r="A107" s="1">
         <v>121</v>
       </c>
-      <c r="B107">
-        <v>1</v>
+      <c r="B107" t="s">
+        <v>6</v>
       </c>
       <c r="C107">
         <v>3</v>
@@ -3178,8 +3190,8 @@
       <c r="A108" s="1">
         <v>122</v>
       </c>
-      <c r="B108">
-        <v>1</v>
+      <c r="B108" t="s">
+        <v>6</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -3198,8 +3210,8 @@
       <c r="A109" s="1">
         <v>123</v>
       </c>
-      <c r="B109">
-        <v>1</v>
+      <c r="B109" t="s">
+        <v>6</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -3218,8 +3230,8 @@
       <c r="A110" s="1">
         <v>124</v>
       </c>
-      <c r="B110">
-        <v>1</v>
+      <c r="B110" t="s">
+        <v>6</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3238,8 +3250,8 @@
       <c r="A111" s="1">
         <v>1148</v>
       </c>
-      <c r="B111">
-        <v>1</v>
+      <c r="B111" t="s">
+        <v>6</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3258,8 +3270,8 @@
       <c r="A112" s="1">
         <v>126</v>
       </c>
-      <c r="B112">
-        <v>1</v>
+      <c r="B112" t="s">
+        <v>6</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -3278,8 +3290,8 @@
       <c r="A113" s="1">
         <v>127</v>
       </c>
-      <c r="B113">
-        <v>1</v>
+      <c r="B113" t="s">
+        <v>6</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3298,8 +3310,8 @@
       <c r="A114" s="1">
         <v>128</v>
       </c>
-      <c r="B114">
-        <v>1</v>
+      <c r="B114" t="s">
+        <v>6</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -3318,8 +3330,8 @@
       <c r="A115" s="1">
         <v>25</v>
       </c>
-      <c r="B115">
-        <v>3</v>
+      <c r="B115" t="s">
+        <v>8</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -3338,8 +3350,8 @@
       <c r="A116" s="1">
         <v>130</v>
       </c>
-      <c r="B116">
-        <v>1</v>
+      <c r="B116" t="s">
+        <v>6</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -3358,8 +3370,8 @@
       <c r="A117" s="1">
         <v>131</v>
       </c>
-      <c r="B117">
-        <v>1</v>
+      <c r="B117" t="s">
+        <v>6</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -3378,8 +3390,8 @@
       <c r="A118" s="1">
         <v>132</v>
       </c>
-      <c r="B118">
-        <v>1</v>
+      <c r="B118" t="s">
+        <v>6</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -3398,8 +3410,8 @@
       <c r="A119" s="1">
         <v>133</v>
       </c>
-      <c r="B119">
-        <v>1</v>
+      <c r="B119" t="s">
+        <v>6</v>
       </c>
       <c r="C119">
         <v>2</v>
@@ -3418,8 +3430,8 @@
       <c r="A120" s="1">
         <v>125</v>
       </c>
-      <c r="B120">
-        <v>1</v>
+      <c r="B120" t="s">
+        <v>6</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -3438,8 +3450,8 @@
       <c r="A121" s="1">
         <v>135</v>
       </c>
-      <c r="B121">
-        <v>1</v>
+      <c r="B121" t="s">
+        <v>6</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3458,8 +3470,8 @@
       <c r="A122" s="1">
         <v>136</v>
       </c>
-      <c r="B122">
-        <v>1</v>
+      <c r="B122" t="s">
+        <v>6</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -3478,8 +3490,8 @@
       <c r="A123" s="1">
         <v>137</v>
       </c>
-      <c r="B123">
-        <v>1</v>
+      <c r="B123" t="s">
+        <v>6</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3498,8 +3510,8 @@
       <c r="A124" s="1">
         <v>138</v>
       </c>
-      <c r="B124">
-        <v>1</v>
+      <c r="B124" t="s">
+        <v>6</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -3518,8 +3530,8 @@
       <c r="A125" s="1">
         <v>139</v>
       </c>
-      <c r="B125">
-        <v>1</v>
+      <c r="B125" t="s">
+        <v>6</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3538,8 +3550,8 @@
       <c r="A126" s="1">
         <v>140</v>
       </c>
-      <c r="B126">
-        <v>1</v>
+      <c r="B126" t="s">
+        <v>6</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -3558,8 +3570,8 @@
       <c r="A127" s="1">
         <v>141</v>
       </c>
-      <c r="B127">
-        <v>1</v>
+      <c r="B127" t="s">
+        <v>6</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3578,8 +3590,8 @@
       <c r="A128" s="1">
         <v>142</v>
       </c>
-      <c r="B128">
-        <v>1</v>
+      <c r="B128" t="s">
+        <v>6</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -3598,8 +3610,8 @@
       <c r="A129" s="1">
         <v>143</v>
       </c>
-      <c r="B129">
-        <v>1</v>
+      <c r="B129" t="s">
+        <v>6</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3618,8 +3630,8 @@
       <c r="A130" s="1">
         <v>144</v>
       </c>
-      <c r="B130">
-        <v>3</v>
+      <c r="B130" t="s">
+        <v>8</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -3638,8 +3650,8 @@
       <c r="A131" s="1">
         <v>145</v>
       </c>
-      <c r="B131">
-        <v>1</v>
+      <c r="B131" t="s">
+        <v>6</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3658,8 +3670,8 @@
       <c r="A132" s="1">
         <v>2706</v>
       </c>
-      <c r="B132">
-        <v>1</v>
+      <c r="B132" t="s">
+        <v>6</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -3678,8 +3690,8 @@
       <c r="A133" s="1">
         <v>147</v>
       </c>
-      <c r="B133">
-        <v>1</v>
+      <c r="B133" t="s">
+        <v>6</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3698,8 +3710,8 @@
       <c r="A134" s="1">
         <v>148</v>
       </c>
-      <c r="B134">
-        <v>1</v>
+      <c r="B134" t="s">
+        <v>6</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -3718,8 +3730,8 @@
       <c r="A135" s="1">
         <v>149</v>
       </c>
-      <c r="B135">
-        <v>1</v>
+      <c r="B135" t="s">
+        <v>6</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -3738,8 +3750,8 @@
       <c r="A136" s="1">
         <v>146</v>
       </c>
-      <c r="B136">
-        <v>1</v>
+      <c r="B136" t="s">
+        <v>6</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -3758,8 +3770,8 @@
       <c r="A137" s="1">
         <v>151</v>
       </c>
-      <c r="B137">
-        <v>1</v>
+      <c r="B137" t="s">
+        <v>6</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -3778,8 +3790,8 @@
       <c r="A138" s="1">
         <v>150</v>
       </c>
-      <c r="B138">
-        <v>1</v>
+      <c r="B138" t="s">
+        <v>6</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -3798,8 +3810,8 @@
       <c r="A139" s="1">
         <v>153</v>
       </c>
-      <c r="B139">
-        <v>1</v>
+      <c r="B139" t="s">
+        <v>6</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -3818,8 +3830,8 @@
       <c r="A140" s="1">
         <v>154</v>
       </c>
-      <c r="B140">
-        <v>1</v>
+      <c r="B140" t="s">
+        <v>6</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -3838,8 +3850,8 @@
       <c r="A141" s="1">
         <v>155</v>
       </c>
-      <c r="B141">
-        <v>1</v>
+      <c r="B141" t="s">
+        <v>6</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -3858,8 +3870,8 @@
       <c r="A142" s="1">
         <v>156</v>
       </c>
-      <c r="B142">
-        <v>1</v>
+      <c r="B142" t="s">
+        <v>6</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -3878,8 +3890,8 @@
       <c r="A143" s="1">
         <v>157</v>
       </c>
-      <c r="B143">
-        <v>4</v>
+      <c r="B143" t="s">
+        <v>9</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -3898,8 +3910,8 @@
       <c r="A144" s="1">
         <v>158</v>
       </c>
-      <c r="B144">
-        <v>1</v>
+      <c r="B144" t="s">
+        <v>6</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -3918,8 +3930,8 @@
       <c r="A145" s="1">
         <v>152</v>
       </c>
-      <c r="B145">
-        <v>1</v>
+      <c r="B145" t="s">
+        <v>6</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -3938,8 +3950,8 @@
       <c r="A146" s="1">
         <v>161</v>
       </c>
-      <c r="B146">
-        <v>1</v>
+      <c r="B146" t="s">
+        <v>6</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -3978,8 +3990,8 @@
       <c r="A148" s="1">
         <v>2209</v>
       </c>
-      <c r="B148">
-        <v>1</v>
+      <c r="B148" t="s">
+        <v>6</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -3998,8 +4010,8 @@
       <c r="A149" s="1">
         <v>676</v>
       </c>
-      <c r="B149">
-        <v>1</v>
+      <c r="B149" t="s">
+        <v>6</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -4018,8 +4030,8 @@
       <c r="A150" s="1">
         <v>165</v>
       </c>
-      <c r="B150">
-        <v>1</v>
+      <c r="B150" t="s">
+        <v>6</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -4038,8 +4050,8 @@
       <c r="A151" s="1">
         <v>1190</v>
       </c>
-      <c r="B151">
-        <v>1</v>
+      <c r="B151" t="s">
+        <v>6</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -4058,8 +4070,8 @@
       <c r="A152" s="1">
         <v>1703</v>
       </c>
-      <c r="B152">
-        <v>1</v>
+      <c r="B152" t="s">
+        <v>6</v>
       </c>
       <c r="C152">
         <v>2</v>
@@ -4078,8 +4090,8 @@
       <c r="A153" s="1">
         <v>168</v>
       </c>
-      <c r="B153">
-        <v>1</v>
+      <c r="B153" t="s">
+        <v>6</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -4098,8 +4110,8 @@
       <c r="A154" s="1">
         <v>166</v>
       </c>
-      <c r="B154">
-        <v>1</v>
+      <c r="B154" t="s">
+        <v>6</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -4118,8 +4130,8 @@
       <c r="A155" s="1">
         <v>542</v>
       </c>
-      <c r="B155">
-        <v>1</v>
+      <c r="B155" t="s">
+        <v>6</v>
       </c>
       <c r="C155">
         <v>6</v>
@@ -4138,8 +4150,8 @@
       <c r="A156" s="1">
         <v>173</v>
       </c>
-      <c r="B156">
-        <v>3</v>
+      <c r="B156" t="s">
+        <v>8</v>
       </c>
       <c r="C156">
         <v>2</v>
@@ -4158,8 +4170,8 @@
       <c r="A157" s="1">
         <v>177</v>
       </c>
-      <c r="B157">
-        <v>1</v>
+      <c r="B157" t="s">
+        <v>6</v>
       </c>
       <c r="C157">
         <v>4</v>
@@ -4178,8 +4190,8 @@
       <c r="A158" s="1">
         <v>694</v>
       </c>
-      <c r="B158">
-        <v>1</v>
+      <c r="B158" t="s">
+        <v>6</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -4198,8 +4210,8 @@
       <c r="A159" s="1">
         <v>186</v>
       </c>
-      <c r="B159">
-        <v>1</v>
+      <c r="B159" t="s">
+        <v>6</v>
       </c>
       <c r="C159">
         <v>2</v>
@@ -4218,8 +4230,8 @@
       <c r="A160" s="1">
         <v>188</v>
       </c>
-      <c r="B160">
-        <v>1</v>
+      <c r="B160" t="s">
+        <v>6</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -4238,8 +4250,8 @@
       <c r="A161" s="1">
         <v>189</v>
       </c>
-      <c r="B161">
-        <v>1</v>
+      <c r="B161" t="s">
+        <v>6</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -4258,8 +4270,8 @@
       <c r="A162" s="1">
         <v>191</v>
       </c>
-      <c r="B162">
-        <v>1</v>
+      <c r="B162" t="s">
+        <v>6</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -4278,8 +4290,8 @@
       <c r="A163" s="1">
         <v>192</v>
       </c>
-      <c r="B163">
-        <v>1</v>
+      <c r="B163" t="s">
+        <v>6</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -4298,8 +4310,8 @@
       <c r="A164" s="1">
         <v>193</v>
       </c>
-      <c r="B164">
-        <v>1</v>
+      <c r="B164" t="s">
+        <v>6</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -4318,8 +4330,8 @@
       <c r="A165" s="1">
         <v>194</v>
       </c>
-      <c r="B165">
-        <v>1</v>
+      <c r="B165" t="s">
+        <v>6</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -4338,8 +4350,8 @@
       <c r="A166" s="1">
         <v>195</v>
       </c>
-      <c r="B166">
-        <v>1</v>
+      <c r="B166" t="s">
+        <v>6</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -4358,8 +4370,8 @@
       <c r="A167" s="1">
         <v>196</v>
       </c>
-      <c r="B167">
-        <v>1</v>
+      <c r="B167" t="s">
+        <v>6</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -4378,8 +4390,8 @@
       <c r="A168" s="1">
         <v>197</v>
       </c>
-      <c r="B168">
-        <v>1</v>
+      <c r="B168" t="s">
+        <v>6</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -4398,8 +4410,8 @@
       <c r="A169" s="1">
         <v>198</v>
       </c>
-      <c r="B169">
-        <v>1</v>
+      <c r="B169" t="s">
+        <v>6</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -4418,8 +4430,8 @@
       <c r="A170" s="1">
         <v>199</v>
       </c>
-      <c r="B170">
-        <v>1</v>
+      <c r="B170" t="s">
+        <v>6</v>
       </c>
       <c r="C170">
         <v>2</v>
@@ -4438,8 +4450,8 @@
       <c r="A171" s="1">
         <v>200</v>
       </c>
-      <c r="B171">
-        <v>1</v>
+      <c r="B171" t="s">
+        <v>6</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -4458,8 +4470,8 @@
       <c r="A172" s="1">
         <v>201</v>
       </c>
-      <c r="B172">
-        <v>1</v>
+      <c r="B172" t="s">
+        <v>6</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -4478,8 +4490,8 @@
       <c r="A173" s="1">
         <v>202</v>
       </c>
-      <c r="B173">
-        <v>3</v>
+      <c r="B173" t="s">
+        <v>8</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -4498,8 +4510,8 @@
       <c r="A174" s="1">
         <v>203</v>
       </c>
-      <c r="B174">
-        <v>1</v>
+      <c r="B174" t="s">
+        <v>6</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -4518,8 +4530,8 @@
       <c r="A175" s="1">
         <v>204</v>
       </c>
-      <c r="B175">
-        <v>1</v>
+      <c r="B175" t="s">
+        <v>6</v>
       </c>
       <c r="C175">
         <v>2</v>
@@ -4538,8 +4550,8 @@
       <c r="A176" s="1">
         <v>205</v>
       </c>
-      <c r="B176">
-        <v>1</v>
+      <c r="B176" t="s">
+        <v>6</v>
       </c>
       <c r="C176">
         <v>2</v>
@@ -4558,8 +4570,8 @@
       <c r="A177" s="1">
         <v>40</v>
       </c>
-      <c r="B177">
-        <v>1</v>
+      <c r="B177" t="s">
+        <v>6</v>
       </c>
       <c r="C177">
         <v>3</v>
@@ -4578,8 +4590,8 @@
       <c r="A178" s="1">
         <v>207</v>
       </c>
-      <c r="B178">
-        <v>1</v>
+      <c r="B178" t="s">
+        <v>6</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -4598,8 +4610,8 @@
       <c r="A179" s="1">
         <v>208</v>
       </c>
-      <c r="B179">
-        <v>1</v>
+      <c r="B179" t="s">
+        <v>6</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -4618,8 +4630,8 @@
       <c r="A180" s="1">
         <v>209</v>
       </c>
-      <c r="B180">
-        <v>1</v>
+      <c r="B180" t="s">
+        <v>6</v>
       </c>
       <c r="C180">
         <v>5</v>
@@ -4638,8 +4650,8 @@
       <c r="A181" s="1">
         <v>210</v>
       </c>
-      <c r="B181">
-        <v>1</v>
+      <c r="B181" t="s">
+        <v>6</v>
       </c>
       <c r="C181">
         <v>2</v>
@@ -4658,8 +4670,8 @@
       <c r="A182" s="1">
         <v>211</v>
       </c>
-      <c r="B182">
-        <v>1</v>
+      <c r="B182" t="s">
+        <v>6</v>
       </c>
       <c r="C182">
         <v>2</v>
@@ -4678,8 +4690,8 @@
       <c r="A183" s="1">
         <v>212</v>
       </c>
-      <c r="B183">
-        <v>1</v>
+      <c r="B183" t="s">
+        <v>6</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -4698,8 +4710,8 @@
       <c r="A184" s="1">
         <v>213</v>
       </c>
-      <c r="B184">
-        <v>1</v>
+      <c r="B184" t="s">
+        <v>6</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -4718,8 +4730,8 @@
       <c r="A185" s="1">
         <v>214</v>
       </c>
-      <c r="B185">
-        <v>1</v>
+      <c r="B185" t="s">
+        <v>6</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -4738,8 +4750,8 @@
       <c r="A186" s="1">
         <v>215</v>
       </c>
-      <c r="B186">
-        <v>4</v>
+      <c r="B186" t="s">
+        <v>9</v>
       </c>
       <c r="C186">
         <v>4</v>
@@ -4758,8 +4770,8 @@
       <c r="A187" s="1">
         <v>1239</v>
       </c>
-      <c r="B187">
-        <v>1</v>
+      <c r="B187" t="s">
+        <v>6</v>
       </c>
       <c r="C187">
         <v>2</v>
@@ -4778,8 +4790,8 @@
       <c r="A188" s="1">
         <v>217</v>
       </c>
-      <c r="B188">
-        <v>1</v>
+      <c r="B188" t="s">
+        <v>6</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -4798,8 +4810,8 @@
       <c r="A189" s="1">
         <v>218</v>
       </c>
-      <c r="B189">
-        <v>1</v>
+      <c r="B189" t="s">
+        <v>6</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -4818,8 +4830,8 @@
       <c r="A190" s="1">
         <v>219</v>
       </c>
-      <c r="B190">
-        <v>1</v>
+      <c r="B190" t="s">
+        <v>6</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -4838,8 +4850,8 @@
       <c r="A191" s="1">
         <v>220</v>
       </c>
-      <c r="B191">
-        <v>1</v>
+      <c r="B191" t="s">
+        <v>6</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -4858,8 +4870,8 @@
       <c r="A192" s="1">
         <v>221</v>
       </c>
-      <c r="B192">
-        <v>1</v>
+      <c r="B192" t="s">
+        <v>6</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -4878,8 +4890,8 @@
       <c r="A193" s="1">
         <v>1757</v>
       </c>
-      <c r="B193">
-        <v>1</v>
+      <c r="B193" t="s">
+        <v>6</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -4898,8 +4910,8 @@
       <c r="A194" s="1">
         <v>223</v>
       </c>
-      <c r="B194">
-        <v>1</v>
+      <c r="B194" t="s">
+        <v>6</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -4918,8 +4930,8 @@
       <c r="A195" s="1">
         <v>224</v>
       </c>
-      <c r="B195">
-        <v>1</v>
+      <c r="B195" t="s">
+        <v>6</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -4938,8 +4950,8 @@
       <c r="A196" s="1">
         <v>225</v>
       </c>
-      <c r="B196">
-        <v>1</v>
+      <c r="B196" t="s">
+        <v>6</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -4958,8 +4970,8 @@
       <c r="A197" s="1">
         <v>226</v>
       </c>
-      <c r="B197">
-        <v>1</v>
+      <c r="B197" t="s">
+        <v>6</v>
       </c>
       <c r="C197">
         <v>3</v>
@@ -4978,8 +4990,8 @@
       <c r="A198" s="1">
         <v>227</v>
       </c>
-      <c r="B198">
-        <v>1</v>
+      <c r="B198" t="s">
+        <v>6</v>
       </c>
       <c r="C198">
         <v>3</v>
@@ -4998,8 +5010,8 @@
       <c r="A199" s="1">
         <v>228</v>
       </c>
-      <c r="B199">
-        <v>1</v>
+      <c r="B199" t="s">
+        <v>6</v>
       </c>
       <c r="C199">
         <v>2</v>
@@ -5018,8 +5030,8 @@
       <c r="A200" s="1">
         <v>229</v>
       </c>
-      <c r="B200">
-        <v>1</v>
+      <c r="B200" t="s">
+        <v>6</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -5038,8 +5050,8 @@
       <c r="A201" s="1">
         <v>230</v>
       </c>
-      <c r="B201">
-        <v>1</v>
+      <c r="B201" t="s">
+        <v>6</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -5058,8 +5070,8 @@
       <c r="A202" s="1">
         <v>231</v>
       </c>
-      <c r="B202">
-        <v>1</v>
+      <c r="B202" t="s">
+        <v>6</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -5078,8 +5090,8 @@
       <c r="A203" s="1">
         <v>232</v>
       </c>
-      <c r="B203">
-        <v>1</v>
+      <c r="B203" t="s">
+        <v>6</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -5098,8 +5110,8 @@
       <c r="A204" s="1">
         <v>233</v>
       </c>
-      <c r="B204">
-        <v>1</v>
+      <c r="B204" t="s">
+        <v>6</v>
       </c>
       <c r="C204">
         <v>2</v>
@@ -5118,8 +5130,8 @@
       <c r="A205" s="1">
         <v>234</v>
       </c>
-      <c r="B205">
-        <v>1</v>
+      <c r="B205" t="s">
+        <v>6</v>
       </c>
       <c r="C205">
         <v>2</v>
@@ -5138,8 +5150,8 @@
       <c r="A206" s="1">
         <v>235</v>
       </c>
-      <c r="B206">
-        <v>1</v>
+      <c r="B206" t="s">
+        <v>6</v>
       </c>
       <c r="C206">
         <v>2</v>
@@ -5158,8 +5170,8 @@
       <c r="A207" s="1">
         <v>236</v>
       </c>
-      <c r="B207">
-        <v>1</v>
+      <c r="B207" t="s">
+        <v>6</v>
       </c>
       <c r="C207">
         <v>2</v>
@@ -5178,8 +5190,8 @@
       <c r="A208" s="1">
         <v>237</v>
       </c>
-      <c r="B208">
-        <v>1</v>
+      <c r="B208" t="s">
+        <v>6</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -5198,8 +5210,8 @@
       <c r="A209" s="1">
         <v>555</v>
       </c>
-      <c r="B209">
-        <v>1</v>
+      <c r="B209" t="s">
+        <v>6</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -5218,8 +5230,8 @@
       <c r="A210" s="1">
         <v>1776</v>
       </c>
-      <c r="B210">
-        <v>1</v>
+      <c r="B210" t="s">
+        <v>6</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -5238,8 +5250,8 @@
       <c r="A211" s="1">
         <v>242</v>
       </c>
-      <c r="B211">
-        <v>1</v>
+      <c r="B211" t="s">
+        <v>6</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -5258,8 +5270,8 @@
       <c r="A212" s="1">
         <v>247</v>
       </c>
-      <c r="B212">
-        <v>1</v>
+      <c r="B212" t="s">
+        <v>6</v>
       </c>
       <c r="C212">
         <v>1</v>
@@ -5278,8 +5290,8 @@
       <c r="A213" s="1">
         <v>248</v>
       </c>
-      <c r="B213">
-        <v>1</v>
+      <c r="B213" t="s">
+        <v>6</v>
       </c>
       <c r="C213">
         <v>5</v>
@@ -5298,8 +5310,8 @@
       <c r="A214" s="1">
         <v>2297</v>
       </c>
-      <c r="B214">
-        <v>3</v>
+      <c r="B214" t="s">
+        <v>8</v>
       </c>
       <c r="C214">
         <v>4</v>
@@ -5318,8 +5330,8 @@
       <c r="A215" s="1">
         <v>249</v>
       </c>
-      <c r="B215">
-        <v>1</v>
+      <c r="B215" t="s">
+        <v>6</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -5338,8 +5350,8 @@
       <c r="A216" s="1">
         <v>1788</v>
       </c>
-      <c r="B216">
-        <v>1</v>
+      <c r="B216" t="s">
+        <v>6</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -5358,8 +5370,8 @@
       <c r="A217" s="1">
         <v>253</v>
       </c>
-      <c r="B217">
-        <v>1</v>
+      <c r="B217" t="s">
+        <v>6</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -5378,8 +5390,8 @@
       <c r="A218" s="1">
         <v>2813</v>
       </c>
-      <c r="B218">
-        <v>1</v>
+      <c r="B218" t="s">
+        <v>6</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -5398,8 +5410,8 @@
       <c r="A219" s="1">
         <v>256</v>
       </c>
-      <c r="B219">
-        <v>1</v>
+      <c r="B219" t="s">
+        <v>6</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -5418,8 +5430,8 @@
       <c r="A220" s="1">
         <v>258</v>
       </c>
-      <c r="B220">
-        <v>1</v>
+      <c r="B220" t="s">
+        <v>6</v>
       </c>
       <c r="C220">
         <v>2</v>
@@ -5438,8 +5450,8 @@
       <c r="A221" s="1">
         <v>260</v>
       </c>
-      <c r="B221">
-        <v>1</v>
+      <c r="B221" t="s">
+        <v>6</v>
       </c>
       <c r="C221">
         <v>2</v>
@@ -5458,8 +5470,8 @@
       <c r="A222" s="1">
         <v>261</v>
       </c>
-      <c r="B222">
-        <v>1</v>
+      <c r="B222" t="s">
+        <v>6</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -5478,8 +5490,8 @@
       <c r="A223" s="1">
         <v>262</v>
       </c>
-      <c r="B223">
-        <v>1</v>
+      <c r="B223" t="s">
+        <v>6</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -5498,8 +5510,8 @@
       <c r="A224" s="1">
         <v>263</v>
       </c>
-      <c r="B224">
-        <v>3</v>
+      <c r="B224" t="s">
+        <v>8</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -5518,8 +5530,8 @@
       <c r="A225" s="1">
         <v>265</v>
       </c>
-      <c r="B225">
-        <v>1</v>
+      <c r="B225" t="s">
+        <v>6</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -5538,8 +5550,8 @@
       <c r="A226" s="1">
         <v>267</v>
       </c>
-      <c r="B226">
-        <v>1</v>
+      <c r="B226" t="s">
+        <v>6</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -5558,8 +5570,8 @@
       <c r="A227" s="1">
         <v>268</v>
       </c>
-      <c r="B227">
-        <v>1</v>
+      <c r="B227" t="s">
+        <v>6</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -5578,8 +5590,8 @@
       <c r="A228" s="1">
         <v>269</v>
       </c>
-      <c r="B228">
-        <v>1</v>
+      <c r="B228" t="s">
+        <v>6</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -5598,8 +5610,8 @@
       <c r="A229" s="1">
         <v>270</v>
       </c>
-      <c r="B229">
-        <v>1</v>
+      <c r="B229" t="s">
+        <v>6</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -5618,8 +5630,8 @@
       <c r="A230" s="1">
         <v>271</v>
       </c>
-      <c r="B230">
-        <v>1</v>
+      <c r="B230" t="s">
+        <v>6</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -5638,8 +5650,8 @@
       <c r="A231" s="1">
         <v>275</v>
       </c>
-      <c r="B231">
-        <v>1</v>
+      <c r="B231" t="s">
+        <v>6</v>
       </c>
       <c r="C231">
         <v>2</v>
@@ -5658,8 +5670,8 @@
       <c r="A232" s="1">
         <v>276</v>
       </c>
-      <c r="B232">
-        <v>1</v>
+      <c r="B232" t="s">
+        <v>6</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -5678,8 +5690,8 @@
       <c r="A233" s="1">
         <v>281</v>
       </c>
-      <c r="B233">
-        <v>1</v>
+      <c r="B233" t="s">
+        <v>6</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -5698,8 +5710,8 @@
       <c r="A234" s="1">
         <v>294</v>
       </c>
-      <c r="B234">
-        <v>1</v>
+      <c r="B234" t="s">
+        <v>6</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -5718,8 +5730,8 @@
       <c r="A235" s="1">
         <v>295</v>
       </c>
-      <c r="B235">
-        <v>3</v>
+      <c r="B235" t="s">
+        <v>8</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -5738,8 +5750,8 @@
       <c r="A236" s="1">
         <v>806</v>
       </c>
-      <c r="B236">
-        <v>1</v>
+      <c r="B236" t="s">
+        <v>6</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -5758,8 +5770,8 @@
       <c r="A237" s="1">
         <v>814</v>
       </c>
-      <c r="B237">
-        <v>1</v>
+      <c r="B237" t="s">
+        <v>6</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -5778,8 +5790,8 @@
       <c r="A238" s="1">
         <v>826</v>
       </c>
-      <c r="B238">
-        <v>1</v>
+      <c r="B238" t="s">
+        <v>6</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -5798,8 +5810,8 @@
       <c r="A239" s="1">
         <v>317</v>
       </c>
-      <c r="B239">
-        <v>1</v>
+      <c r="B239" t="s">
+        <v>6</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -5818,8 +5830,8 @@
       <c r="A240" s="1">
         <v>327</v>
       </c>
-      <c r="B240">
-        <v>1</v>
+      <c r="B240" t="s">
+        <v>6</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -5838,8 +5850,8 @@
       <c r="A241" s="1">
         <v>349</v>
       </c>
-      <c r="B241">
-        <v>4</v>
+      <c r="B241" t="s">
+        <v>9</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -5858,8 +5870,8 @@
       <c r="A242" s="1">
         <v>1891</v>
       </c>
-      <c r="B242">
-        <v>4</v>
+      <c r="B242" t="s">
+        <v>9</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -5878,8 +5890,8 @@
       <c r="A243" s="1">
         <v>359</v>
       </c>
-      <c r="B243">
-        <v>1</v>
+      <c r="B243" t="s">
+        <v>6</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -5898,8 +5910,8 @@
       <c r="A244" s="1">
         <v>1902</v>
       </c>
-      <c r="B244">
-        <v>1</v>
+      <c r="B244" t="s">
+        <v>6</v>
       </c>
       <c r="C244">
         <v>2</v>
@@ -5918,8 +5930,8 @@
       <c r="A245" s="1">
         <v>1398</v>
       </c>
-      <c r="B245">
-        <v>1</v>
+      <c r="B245" t="s">
+        <v>6</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -5938,8 +5950,8 @@
       <c r="A246" s="1">
         <v>888</v>
       </c>
-      <c r="B246">
-        <v>1</v>
+      <c r="B246" t="s">
+        <v>6</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -5958,8 +5970,8 @@
       <c r="A247" s="1">
         <v>1401</v>
       </c>
-      <c r="B247">
-        <v>1</v>
+      <c r="B247" t="s">
+        <v>6</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -5978,8 +5990,8 @@
       <c r="A248" s="1">
         <v>1926</v>
       </c>
-      <c r="B248">
-        <v>4</v>
+      <c r="B248" t="s">
+        <v>9</v>
       </c>
       <c r="C248">
         <v>2</v>
@@ -5998,8 +6010,8 @@
       <c r="A249" s="1">
         <v>919</v>
       </c>
-      <c r="B249">
-        <v>1</v>
+      <c r="B249" t="s">
+        <v>6</v>
       </c>
       <c r="C249">
         <v>2</v>
@@ -6018,8 +6030,8 @@
       <c r="A250" s="1">
         <v>925</v>
       </c>
-      <c r="B250">
-        <v>1</v>
+      <c r="B250" t="s">
+        <v>6</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -6038,8 +6050,8 @@
       <c r="A251" s="1">
         <v>1954</v>
       </c>
-      <c r="B251">
-        <v>1</v>
+      <c r="B251" t="s">
+        <v>6</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -6058,8 +6070,8 @@
       <c r="A252" s="1">
         <v>937</v>
       </c>
-      <c r="B252">
-        <v>1</v>
+      <c r="B252" t="s">
+        <v>6</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -6078,8 +6090,8 @@
       <c r="A253" s="1">
         <v>426</v>
       </c>
-      <c r="B253">
-        <v>1</v>
+      <c r="B253" t="s">
+        <v>6</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -6098,8 +6110,8 @@
       <c r="A254" s="1">
         <v>428</v>
       </c>
-      <c r="B254">
-        <v>1</v>
+      <c r="B254" t="s">
+        <v>6</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -6118,8 +6130,8 @@
       <c r="A255" s="1">
         <v>945</v>
       </c>
-      <c r="B255">
-        <v>1</v>
+      <c r="B255" t="s">
+        <v>6</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -6138,8 +6150,8 @@
       <c r="A256" s="1">
         <v>951</v>
       </c>
-      <c r="B256">
-        <v>1</v>
+      <c r="B256" t="s">
+        <v>6</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -6158,8 +6170,8 @@
       <c r="A257" s="1">
         <v>2492</v>
       </c>
-      <c r="B257">
-        <v>1</v>
+      <c r="B257" t="s">
+        <v>6</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -6178,8 +6190,8 @@
       <c r="A258" s="1">
         <v>1984</v>
       </c>
-      <c r="B258">
-        <v>1</v>
+      <c r="B258" t="s">
+        <v>6</v>
       </c>
       <c r="C258">
         <v>2</v>
@@ -6198,8 +6210,8 @@
       <c r="A259" s="1">
         <v>1991</v>
       </c>
-      <c r="B259">
-        <v>1</v>
+      <c r="B259" t="s">
+        <v>6</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -6218,8 +6230,8 @@
       <c r="A260" s="1">
         <v>1480</v>
       </c>
-      <c r="B260">
-        <v>1</v>
+      <c r="B260" t="s">
+        <v>6</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -6258,8 +6270,8 @@
       <c r="A262" s="1">
         <v>1483</v>
       </c>
-      <c r="B262">
-        <v>1</v>
+      <c r="B262" t="s">
+        <v>6</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -6278,8 +6290,8 @@
       <c r="A263" s="1">
         <v>470</v>
       </c>
-      <c r="B263">
-        <v>1</v>
+      <c r="B263" t="s">
+        <v>6</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -6298,8 +6310,8 @@
       <c r="A264" s="1">
         <v>477</v>
       </c>
-      <c r="B264">
-        <v>1</v>
+      <c r="B264" t="s">
+        <v>6</v>
       </c>
       <c r="C264">
         <v>2</v>
@@ -6318,8 +6330,8 @@
       <c r="A265" s="1">
         <v>481</v>
       </c>
-      <c r="B265">
-        <v>1</v>
+      <c r="B265" t="s">
+        <v>6</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -6338,8 +6350,8 @@
       <c r="A266" s="1">
         <v>494</v>
       </c>
-      <c r="B266">
-        <v>1</v>
+      <c r="B266" t="s">
+        <v>6</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -6358,8 +6370,8 @@
       <c r="A267" s="1">
         <v>1007</v>
       </c>
-      <c r="B267">
-        <v>1</v>
+      <c r="B267" t="s">
+        <v>6</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -6378,8 +6390,8 @@
       <c r="A268" s="1">
         <v>2034</v>
       </c>
-      <c r="B268">
-        <v>1</v>
+      <c r="B268" t="s">
+        <v>6</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -6398,8 +6410,8 @@
       <c r="A269" s="1">
         <v>2043</v>
       </c>
-      <c r="B269">
-        <v>1</v>
+      <c r="B269" t="s">
+        <v>6</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -6418,8 +6430,8 @@
       <c r="A270" s="1">
         <v>1023</v>
       </c>
-      <c r="B270">
-        <v>1</v>
+      <c r="B270" t="s">
+        <v>6</v>
       </c>
       <c r="C270">
         <v>1</v>
